--- a/output/result.xlsx
+++ b/output/result.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,6 +462,11 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>radius_limit</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>nearest</t>
         </is>
       </c>
@@ -491,9 +496,12 @@
           <t>('A1', (3.165662, 101.648677))</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>[('C1', 0.0), ('B3', 0.1200574336676934), ('B1', 0.12024377681503264), ('B2', 0.2222186860319872), ('B4', 0.44338499682049487), ('B5', 1.2875686982654766)]</t>
+      <c r="G2" t="n">
+        <v>10</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('B3', 0.1200574336676934), ('B1', 0.12024377681503264), ('B2', 0.2222186860319872), ('C1', 0.38809963301702843), ('B4', 0.44338499682049487), ('B5', 1.2875686982654766), ('C4', 1.7534974324816919), ('C2', 1.7986660803749506), ('C3', 1.936727442852998), ('C5', 2.257858855089086)]</t>
         </is>
       </c>
     </row>
@@ -522,9 +530,12 @@
           <t>('A2', (3.15136, 101.615948))</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>[('C2', 0.0)]</t>
+      <c r="G3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('B2', 3.766613581343238), ('B3', 4.012220413375427), ('B1', 4.033817241646928), ('C3', 4.06732025072271), ('C1', 4.343710513821838), ('B4', 4.403853314262601), ('C4', 4.5069986259390395), ('C5', 5.060633706208264), ('B5', 5.252879238770975), ('C2', 5.763181444408598)]</t>
         </is>
       </c>
     </row>
@@ -553,9 +564,12 @@
           <t>('A3', (3.118985, 101.675336))</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>[('C3', 0.0), ('C4', 1.3254423440536973)]</t>
+      <c r="G4" t="n">
+        <v>10</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('C5', 3.7656073794037517), ('C3', 4.162891202116676), ('C4', 4.221424393088717), ('C1', 5.851405294084265), ('B4', 5.867738952946295), ('B2', 5.905865623500461), ('C2', 5.953972163753072), ('B5', 6.041658603009807), ('B1', 6.068348728942088), ('B3', 6.0815352443169095)]</t>
         </is>
       </c>
     </row>
@@ -584,9 +598,12 @@
           <t>('A4', (3.129969, 101.670699))</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>[('C4', 0.0), ('C3', 1.3254423440536973), ('C5', 1.4600400731283656)]</t>
+      <c r="G5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('C5', 2.4406209670515424), ('C3', 2.9003909413657403), ('C4', 2.9094430925661903), ('C1', 4.528755308051217), ('B4', 4.544159856013012), ('B2', 4.600839028729995), ('C2', 4.65702375041151), ('B5', 4.723880017616637), ('B1', 4.752553512046942), ('B3', 4.766359417203016)]</t>
         </is>
       </c>
     </row>
@@ -615,9 +632,12 @@
           <t>('A5', (3.14271, 101.66752))</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>[('C5', 0.0), ('C4', 1.4600400731283656)]</t>
+      <c r="G6" t="n">
+        <v>10</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('C5', 1.0422331356843104), ('C4', 1.5969919870849083), ('C3', 1.796101286525836), ('C1', 3.124256995803285), ('B4', 3.1332732710056796), ('C2', 3.203865402261578), ('B5', 3.2649930705358234), ('B2', 3.2708184008179155), ('B1', 3.3801110420049247), ('B3', 3.39634359965051)]</t>
         </is>
       </c>
     </row>
@@ -646,9 +666,12 @@
           <t>('B1', (3.166728, 101.648859))</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>[('A1', 0.12024377681503264), ('C1', 0.12024377681503264)]</t>
+      <c r="G7" t="n">
+        <v>10</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('A1', 0.12024377681503264), ('C1', 0.36692181064398766), ('C2', 1.7415867745161593), ('C4', 1.8478380666305096), ('C3', 2.0485063124111798), ('C5', 2.338838155226894), ('A5', 3.3801110420049247), ('A2', 4.033817241646928), ('A4', 4.752553512046942), ('A3', 6.068348728942088)]</t>
         </is>
       </c>
     </row>
@@ -677,9 +700,12 @@
           <t>('B2', (3.164158, 101.647359))</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>[('A1', 0.2222186860319872), ('C1', 0.2222186860319872)]</t>
+      <c r="G8" t="n">
+        <v>10</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('A1', 0.2222186860319872), ('C1', 0.577231206875848), ('C4', 1.6943505666546197), ('C3', 1.8143168668522693), ('C2', 1.9968571401960675), ('C5', 2.2311751399414415), ('A5', 3.2708184008179155), ('A2', 3.766613581343238), ('A4', 4.600839028729995), ('A3', 5.905865623500461)]</t>
         </is>
       </c>
     </row>
@@ -708,9 +734,12 @@
           <t>('B3', (3.166741, 101.648638))</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>[('A1', 0.1200574336676934), ('C1', 0.1200574336676934)]</t>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('A1', 0.1200574336676934), ('C1', 0.39140209719352587), ('C2', 1.7646583992479408), ('C4', 1.8605597142537913), ('C3', 2.0548793235813485), ('C5', 2.3547986682863242), ('A5', 3.39634359965051), ('A2', 4.012220413375427), ('A4', 4.766359417203016), ('A3', 6.0815352443169095)]</t>
         </is>
       </c>
     </row>
@@ -739,9 +768,12 @@
           <t>('B4', (3.166602, 101.652558))</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>[('A1', 0.44338499682049487), ('C1', 0.44338499682049487)]</t>
+      <c r="G10" t="n">
+        <v>10</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('C1', 0.06333608770282707), ('A1', 0.44338499682049487), ('C2', 1.3593291044942635), ('C4', 1.6844114772606502), ('C3', 1.9946324420233688), ('C5', 2.1055582168436704), ('A5', 3.1332732710056796), ('A2', 4.403853314262601), ('A4', 4.544159856013012), ('A3', 5.867738952946295)]</t>
         </is>
       </c>
     </row>
@@ -770,9 +802,12 @@
           <t>('B5', (3.17083, 101.659055))</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>[('A1', 1.2875686982654766), ('C1', 1.2875686982654766)]</t>
+      <c r="G11" t="n">
+        <v>10</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('C2', 0.536483252995675), ('C1', 0.9238174732125184), ('A1', 1.2875686982654766), ('C4', 2.114145009666915), ('C5', 2.3424895310121268), ('C3', 2.570514599239202), ('A5', 3.2649930705358234), ('A4', 4.723880017616637), ('A2', 5.252879238770975), ('A3', 6.041658603009807)]</t>
         </is>
       </c>
     </row>
@@ -791,19 +826,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3.165662</v>
+        <v>3.16623</v>
       </c>
       <c r="E12" t="n">
-        <v>101.648677</v>
+        <v>101.652126</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>('C1', (3.165662, 101.648677))</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>[('A1', 0.0), ('B3', 0.1200574336676934), ('B1', 0.12024377681503264), ('B2', 0.2222186860319872), ('B4', 0.44338499682049487), ('B5', 1.2875686982654766)]</t>
+          <t>('C1', (3.16623, 101.652126))</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>10</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('B4', 0.06333608770282707), ('B1', 0.36692181064398766), ('A1', 0.38809963301702843), ('B3', 0.39140209719352587), ('B2', 0.577231206875848), ('B5', 0.9238174732125184), ('A5', 3.124256995803285), ('A2', 4.343710513821838), ('A4', 4.528755308051217), ('A3', 5.851405294084265)]</t>
         </is>
       </c>
     </row>
@@ -822,19 +860,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3.15136</v>
+        <v>3.171291</v>
       </c>
       <c r="E13" t="n">
-        <v>101.615948</v>
+        <v>101.663865</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>('C2', (3.15136, 101.615948))</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>[('A2', 0.0)]</t>
+          <t>('C2', (3.171291, 101.663865))</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>10</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('B5', 0.536483252995675), ('B4', 1.3593291044942635), ('B1', 1.7415867745161593), ('B3', 1.7646583992479408), ('A1', 1.7986660803749506), ('B2', 1.9968571401960675), ('A5', 3.203865402261578), ('A4', 4.65702375041151), ('A2', 5.763181444408598), ('A3', 5.953972163753072)]</t>
         </is>
       </c>
     </row>
@@ -853,19 +894,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3.118985</v>
+        <v>3.148664</v>
       </c>
       <c r="E14" t="n">
-        <v>101.675336</v>
+        <v>101.652482</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>('C3', (3.118985, 101.675336))</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>[('A3', 0.0), ('A4', 1.3254423440536973)]</t>
+          <t>('C3', (3.148664, 101.652482))</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>10</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('A5', 1.796101286525836), ('B2', 1.8143168668522693), ('A1', 1.936727442852998), ('B4', 1.9946324420233688), ('B1', 2.0485063124111798), ('B3', 2.0548793235813485), ('B5', 2.570514599239202), ('A4', 2.9003909413657403), ('A2', 4.06732025072271), ('A3', 4.162891202116676)]</t>
         </is>
       </c>
     </row>
@@ -884,19 +928,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3.129969</v>
+        <v>3.151984</v>
       </c>
       <c r="E15" t="n">
-        <v>101.670699</v>
+        <v>101.656537</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>('C4', (3.129969, 101.670699))</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>[('A4', 0.0), ('A3', 1.3254423440536973), ('A5', 1.4600400731283656)]</t>
+          <t>('C4', (3.151984, 101.656537))</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>10</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('A5', 1.5969919870849083), ('B4', 1.6844114772606502), ('B2', 1.6943505666546197), ('A1', 1.7534974324816919), ('B1', 1.8478380666305096), ('B3', 1.8605597142537913), ('B5', 2.114145009666915), ('A4', 2.9094430925661903), ('A3', 4.221424393088717), ('A2', 4.5069986259390395)]</t>
         </is>
       </c>
     </row>
@@ -915,19 +962,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3.14271</v>
+        <v>3.149906</v>
       </c>
       <c r="E16" t="n">
-        <v>101.66752</v>
+        <v>101.661505</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>('C5', (3.14271, 101.66752))</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>[('A5', 0.0), ('A4', 1.4600400731283656)]</t>
+          <t>('C5', (3.149906, 101.661505))</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>10</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('A5', 1.0422331356843104), ('B4', 2.1055582168436704), ('B2', 2.2311751399414415), ('A1', 2.257858855089086), ('B1', 2.338838155226894), ('B5', 2.3424895310121268), ('B3', 2.3547986682863242), ('A4', 2.4406209670515424), ('A3', 3.7656073794037517), ('A2', 5.060633706208264)]</t>
         </is>
       </c>
     </row>
